--- a/lab02/experiments/experiments.xlsx
+++ b/lab02/experiments/experiments.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\SEM5\MHE\lab02\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2051D76-F9C2-4258-9F9F-F0729CCE13C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292CD30D-AF70-4E3C-8B7A-DC4DB045BA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="taboo_M" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="14">
   <si>
     <t xml:space="preserve">Taboo search duration: </t>
   </si>
@@ -48,13 +59,29 @@
   <si>
     <t>AVG GOAL:</t>
   </si>
+  <si>
+    <t>Size:</t>
+  </si>
+  <si>
+    <t>Avg: Time</t>
+  </si>
+  <si>
+    <t>taboo</t>
+  </si>
+  <si>
+    <t>hill</t>
+  </si>
+  <si>
+    <t>brute</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -631,7 +658,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -685,6 +712,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -743,6 +779,1095 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Average time for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> 6, 9, 12 numbers</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Taboo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>taboo_M!$J$8:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.0000000">
+                  <c:v>8.812319999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1648800000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000000">
+                  <c:v>4.9298719999999992E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E13B-4C02-A663-545C2AF76172}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Hill climb</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>taboo_M!$J$11:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.440000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3123600000000011E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8129999999999998E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E13B-4C02-A663-545C2AF76172}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Brute Force</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>taboo_M!$J$14:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.2387200000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5293639999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.193741424</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E13B-4C02-A663-545C2AF76172}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1184486752"/>
+        <c:axId val="1184465536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1184486752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184465536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1184465536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184486752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>828673</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3095624</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Wykres 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56CB3356-A4EC-456F-90DE-5F2351249A45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1041,11 +2166,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F263"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="L231" sqref="L231"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,10 +2181,13 @@
     <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="46.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +2207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +2227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +2247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +2267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +2287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1179,7 +2307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
@@ -1198,8 +2326,14 @@
       <c r="F7" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -1218,8 +2352,17 @@
       <c r="F8" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="J8" s="19">
+        <v>8.812319999999997E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -1238,8 +2381,14 @@
       <c r="F9" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I9" s="1">
+        <v>9</v>
+      </c>
+      <c r="J9" s="21">
+        <v>3.1648800000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -1258,8 +2407,14 @@
       <c r="F10" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I10" s="1">
+        <v>12</v>
+      </c>
+      <c r="J10" s="20">
+        <v>4.9298719999999992E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
@@ -1278,8 +2433,17 @@
       <c r="F11" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6</v>
+      </c>
+      <c r="J11" s="19">
+        <v>7.440000000000002E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
@@ -1298,8 +2462,14 @@
       <c r="F12" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <v>9</v>
+      </c>
+      <c r="J12" s="19">
+        <v>3.3123600000000011E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
@@ -1318,8 +2488,14 @@
       <c r="F13" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <v>12</v>
+      </c>
+      <c r="J13" s="19">
+        <v>5.8129999999999998E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
@@ -1338,8 +2514,17 @@
       <c r="F14" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1">
+        <v>6</v>
+      </c>
+      <c r="J14" s="19">
+        <v>1.2387200000000002E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>0</v>
       </c>
@@ -1358,8 +2543,14 @@
       <c r="F15" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <v>9</v>
+      </c>
+      <c r="J15" s="19">
+        <v>3.5293639999999997E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
@@ -1377,6 +2568,12 @@
       </c>
       <c r="F16" s="9">
         <v>5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>12</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0.193741424</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5691,5 +6888,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/lab02/experiments/experiments.xlsx
+++ b/lab02/experiments/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\SEM5\MHE\lab02\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292CD30D-AF70-4E3C-8B7A-DC4DB045BA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7D3D20-2C29-41D5-8E21-40AE8CE6163D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="12">
   <si>
     <t xml:space="preserve">Taboo search duration: </t>
   </si>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Goal value: </t>
-  </si>
-  <si>
-    <t>Problem size:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Goal value:</t>
   </si>
   <si>
     <t xml:space="preserve">Hill climb duration: </t>
@@ -658,7 +652,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -693,12 +687,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,13 +702,40 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -820,7 +835,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> 6, 9, 12 numbers</a:t>
+              <a:t> 6, 9, 12, 24 numbers</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL"/>
@@ -860,7 +875,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15014917125130992"/>
+          <c:y val="8.9045561673208914E-2"/>
+          <c:w val="0.84985082874869011"/>
+          <c:h val="0.79053154508024948"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -895,34 +920,43 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>12</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>taboo_M!$I$8:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>taboo_M!$J$8:$J$10</c:f>
+              <c:f>taboo_M!$J$8:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0000000000</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.0000000">
-                  <c:v>8.812319999999997E-4</c:v>
+                  <c:v>0.48386583999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1648800000000001E-3</c:v>
+                  <c:v>1.2974439999999998</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0000000">
-                  <c:v>4.9298719999999992E-3</c:v>
+                  <c:v>2.3327963999999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>9.4030024000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -964,20 +998,44 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>taboo_M!$I$8:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>taboo_M!$J$11:$J$13</c:f>
+              <c:f>taboo_M!$J$12:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.440000000000002E-5</c:v>
+                  <c:v>7.2620000000000006E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3123600000000011E-4</c:v>
+                  <c:v>3.74576E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8129999999999998E-4</c:v>
+                  <c:v>6.18416E-4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>2.5683440000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,11 +1077,32 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>taboo_M!$I$8:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>taboo_M!$J$14:$J$16</c:f>
+              <c:f>taboo_M!$J$17:$J$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.2387200000000002E-4</c:v>
@@ -1112,7 +1191,7 @@
         <c:axId val="1184465536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.2"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1130,36 +1209,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1194,6 +1243,7 @@
         <c:crossAx val="1184486752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
@@ -1833,16 +1883,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>828673</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85573</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3095624</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>411381</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:rowOff>93876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2167,10 +2217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J263"/>
+  <dimension ref="A1:J290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2188,3125 +2238,3214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14">
-        <v>3.6543999999999999E-3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1.2834399999999999</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5">
-        <v>2</v>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16">
-        <v>2.8436999999999998E-3</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.32846</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="9">
-        <v>3</v>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="16">
-        <v>2.7920000000000002E-3</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1.2720400000000001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="9">
-        <v>2</v>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="16">
-        <v>2.6936999999999998E-3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1.3331</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1.26973</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1.3133900000000001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="16">
-        <v>2.8633999999999999E-3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1.3094300000000001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>9</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1.34483</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="8">
+        <v>6</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0.48386583999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1.29918</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="8">
+        <v>9</v>
+      </c>
+      <c r="J9" s="20">
+        <v>1.2974439999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1.3339799999999999</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16">
-        <v>2.6987999999999999E-3</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="H10" s="18"/>
+      <c r="I10" s="8">
+        <v>12</v>
+      </c>
+      <c r="J10" s="21">
+        <v>2.3327963999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1.2996000000000001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>9</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23">
+        <v>24</v>
+      </c>
+      <c r="J11" s="24">
+        <v>9.4030024000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1.3096399999999999</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4">
+        <v>6</v>
+      </c>
+      <c r="J12" s="25">
+        <v>7.2620000000000006E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1.32836</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="8">
+        <v>9</v>
+      </c>
+      <c r="J13" s="19">
+        <v>3.74576E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1.2792699999999999</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="8">
+        <v>12</v>
+      </c>
+      <c r="J14" s="19">
+        <v>6.18416E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1.30532</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23">
+        <v>24</v>
+      </c>
+      <c r="J15" s="24">
+        <v>2.5683440000000002E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>1.2547600000000001</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="16">
-        <v>3.2648E-3</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>1.27475</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>9</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="9">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="4">
+        <v>6</v>
+      </c>
+      <c r="J17" s="25">
+        <v>1.2387200000000002E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>1.2648600000000001</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>9</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="16">
-        <v>2.7041000000000001E-3</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="8">
         <v>9</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="1">
-        <v>6</v>
-      </c>
-      <c r="J8" s="19">
-        <v>8.812319999999997E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="16">
-        <v>3.9426000000000001E-3</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="J18" s="19">
+        <v>3.5293639999999997E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>1.27169</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>9</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="9">
-        <v>3</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23">
+        <v>12</v>
+      </c>
+      <c r="J19" s="26">
+        <v>0.193741424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>1.3022199999999999</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>9</v>
       </c>
-      <c r="J9" s="21">
-        <v>3.1648800000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="16">
-        <v>2.8663999999999999E-3</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1.28406</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>9</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="9">
-        <v>3</v>
-      </c>
-      <c r="I10" s="1">
-        <v>12</v>
-      </c>
-      <c r="J10" s="20">
-        <v>4.9298719999999992E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="16">
-        <v>2.6602000000000002E-3</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1.30576</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>9</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="9">
-        <v>3</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="1">
-        <v>6</v>
-      </c>
-      <c r="J11" s="19">
-        <v>7.440000000000002E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="16">
-        <v>2.7875E-3</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>1.29217</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>9</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="9">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>1.2717499999999999</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>9</v>
       </c>
-      <c r="J12" s="19">
-        <v>3.3123600000000011E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="16">
-        <v>2.8506E-3</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1.3043100000000001</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25">
         <v>9</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>12</v>
-      </c>
-      <c r="J13" s="19">
-        <v>5.8129999999999998E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="16">
-        <v>2.7632999999999998E-3</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
-        <v>9</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="9">
-        <v>4</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="1">
-        <v>6</v>
-      </c>
-      <c r="J14" s="19">
-        <v>1.2387200000000002E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="16">
-        <v>2.7117999999999999E-3</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8">
-        <v>9</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="9">
-        <v>2</v>
-      </c>
-      <c r="I15" s="1">
-        <v>9</v>
-      </c>
-      <c r="J15" s="19">
-        <v>3.5293639999999997E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="16">
-        <v>2.7242999999999998E-3</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8">
-        <v>9</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="1">
-        <v>12</v>
-      </c>
-      <c r="J16" s="19">
-        <v>0.193741424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="16">
-        <v>2.9810000000000001E-3</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8">
-        <v>9</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="16">
-        <v>3.1050000000000001E-3</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8">
-        <v>9</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="16">
-        <v>3.1993999999999998E-3</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8">
-        <v>9</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="16">
-        <v>3.2915000000000002E-3</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8">
-        <v>9</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="16">
-        <v>5.4381999999999998E-3</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8">
-        <v>9</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="16">
-        <v>3.4275999999999998E-3</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8">
-        <v>9</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="16">
-        <v>4.4413999999999999E-3</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="8">
-        <v>9</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="16">
-        <v>3.5864E-3</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8">
-        <v>9</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="16">
-        <v>2.8299000000000002E-3</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8">
-        <v>9</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="17">
+      <c r="B26" s="15">
         <f>SUM(B1:B25)/25</f>
-        <v>3.1648800000000001E-3</v>
+        <v>1.2974439999999998</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="16">
+        <f>SUM(F1:F25)/25</f>
+        <v>10.039999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2.6330800000000001</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
         <v>8</v>
       </c>
-      <c r="F26" s="18">
-        <f>SUM(F1:F25)/25</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="15"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="14">
-        <v>5.4476999999999998E-3</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4">
-        <v>12</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="16">
-        <v>5.2794000000000001E-3</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8">
-        <v>12</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="16">
-        <v>4.8263999999999998E-3</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8">
-        <v>12</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="9">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2.3766600000000002</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2.3470900000000001</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2.35575</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2.2951000000000001</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2.2790699999999999</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2.3133400000000002</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2.2289599999999998</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2.2902399999999998</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2.36591</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2.3658700000000001</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2.3365100000000001</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2.3716599999999999</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2.34775</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2.2952499999999998</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2.3371499999999998</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2.3211400000000002</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2.3085599999999999</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>12</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="16">
-        <v>4.7865E-3</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="8">
-        <v>12</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="16">
-        <v>4.8891000000000004E-3</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8">
-        <v>12</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="9">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2.3832200000000001</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2.26553</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2.34457</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2.3208099999999998</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2.2828300000000001</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="16">
-        <v>5.3413000000000002E-3</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="8">
-        <v>12</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="16">
-        <v>5.4409999999999997E-3</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="8">
-        <v>12</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="9">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2.2503299999999999</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>12</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2.3035299999999999</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>12</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1">
         <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="16">
-        <v>4.8412000000000004E-3</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="8">
-        <v>12</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="16">
-        <v>4.7077000000000004E-3</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="8">
-        <v>12</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="16">
-        <v>4.6873000000000001E-3</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="8">
-        <v>12</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="16">
-        <v>4.8402999999999996E-3</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="8">
-        <v>12</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="16">
-        <v>4.8436E-3</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="8">
-        <v>12</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" s="9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="16">
-        <v>4.7815000000000002E-3</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="8">
-        <v>12</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="16">
-        <v>4.7534999999999999E-3</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="8">
-        <v>12</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="16">
-        <v>4.9643999999999999E-3</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="8">
-        <v>12</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="16">
-        <v>4.8453999999999997E-3</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="8">
-        <v>12</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F43" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="16">
-        <v>4.7524000000000004E-3</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="8">
-        <v>12</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="16">
-        <v>5.2226E-3</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="8">
-        <v>12</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F45" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="16">
-        <v>4.8382E-3</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="8">
-        <v>12</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="16">
-        <v>4.8326000000000003E-3</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="8">
-        <v>12</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="16">
-        <v>4.8371000000000004E-3</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="8">
-        <v>12</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="16">
-        <v>4.8129999999999996E-3</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="8">
-        <v>12</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F49" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="16">
-        <v>4.8672000000000003E-3</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="8">
-        <v>12</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F50" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="16">
-        <v>4.9087000000000002E-3</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="8">
-        <v>12</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="16">
-        <v>4.8986999999999998E-3</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="8">
-        <v>12</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F52" s="9">
-        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="17">
+        <v>5</v>
+      </c>
+      <c r="B53" s="15">
         <f>SUM(B28:B52)/25</f>
-        <v>4.9298719999999992E-3</v>
+        <v>2.3327963999999999</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" s="18">
+        <v>6</v>
+      </c>
+      <c r="F53" s="16">
         <f>SUM(F28:F52)/25</f>
-        <v>17.04</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="15"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.51511899999999999</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="14">
-        <v>8.9490000000000001E-4</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="12">
-        <v>6</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F55" s="5">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.491031</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="16">
-        <v>8.9899999999999995E-4</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="13">
-        <v>6</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F56" s="9">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.47434900000000002</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="16">
-        <v>8.9260000000000001E-4</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="13">
-        <v>6</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F57" s="9">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.492558</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="16">
-        <v>8.8630000000000002E-4</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="13">
-        <v>6</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F58" s="9">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.48941600000000002</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>6</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="16">
-        <v>8.7569999999999998E-4</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="13">
-        <v>6</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F59" s="9">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.48372399999999999</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>6</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="16">
-        <v>8.7989999999999997E-4</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="13">
-        <v>6</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F60" s="9">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.485655</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="16">
-        <v>8.9599999999999999E-4</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="13">
-        <v>6</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F61" s="9">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.46851799999999999</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>6</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="16">
-        <v>9.4260000000000004E-4</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="13">
-        <v>6</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F62" s="9">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.48447800000000002</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>6</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="16">
-        <v>9.5500000000000001E-4</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="13">
-        <v>6</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F63" s="9">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.48358899999999999</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>6</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="16">
-        <v>9.0410000000000002E-4</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="13">
-        <v>6</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F64" s="9">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.47353499999999998</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>6</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="16">
-        <v>1.0476999999999999E-3</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="13">
-        <v>6</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F65" s="9">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.48175299999999999</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>6</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="16">
-        <v>1.0522000000000001E-3</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="13">
-        <v>6</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F66" s="9">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.49087599999999998</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>6</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="16">
-        <v>8.8690000000000004E-4</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="13">
-        <v>6</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F67" s="9">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.48583700000000002</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>6</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="16">
-        <v>9.6869999999999996E-4</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="13">
-        <v>6</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F68" s="9">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.49308800000000003</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>6</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="16">
-        <v>8.9530000000000002E-4</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="13">
-        <v>6</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F69" s="9">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.47237699999999999</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>6</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="16">
-        <v>9.3979999999999997E-4</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="13">
-        <v>6</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F70" s="9">
+      <c r="A70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.489039</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>6</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="16">
-        <v>8.7900000000000001E-4</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="13">
-        <v>6</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F71" s="9">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.48958099999999999</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <v>6</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="16">
-        <v>8.8409999999999997E-4</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="13">
-        <v>6</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F72" s="9">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.49513200000000002</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>6</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="16">
-        <v>9.613E-4</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="13">
-        <v>6</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F73" s="9">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.48802099999999998</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <v>6</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="16">
-        <v>8.9209999999999995E-4</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="13">
-        <v>6</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F74" s="9">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.48111100000000001</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>6</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="16">
-        <v>9.4399999999999996E-4</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="13">
-        <v>6</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F75" s="9">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.47627000000000003</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>6</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="16">
-        <v>8.7949999999999996E-4</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="13">
-        <v>6</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F76" s="9">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.47174700000000003</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>6</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="16">
-        <v>8.8999999999999995E-4</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="13">
-        <v>6</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F77" s="9">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.46803600000000001</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>6</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="16">
-        <v>8.8409999999999997E-4</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="13">
-        <v>6</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="9">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.471806</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>6</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="17">
+        <v>5</v>
+      </c>
+      <c r="B79" s="15">
         <f>SUM(B54:B78)/25</f>
-        <v>8.812319999999997E-4</v>
+        <v>0.48386583999999999</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="18">
+        <v>6</v>
+      </c>
+      <c r="F79" s="16">
         <f>SUM(F55:F78)/25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="15"/>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="28">
+        <v>9.7299999999999993E-5</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>6</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81" s="14">
-        <v>9.8900000000000005E-5</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" s="4">
-        <v>6</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F81" s="5">
+      <c r="A81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="28">
+        <v>8.6000000000000003E-5</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <v>6</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" s="16">
-        <v>4.0500000000000002E-5</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" s="8">
-        <v>6</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F82" s="9">
+      <c r="A82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="28">
+        <v>7.8899999999999993E-5</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>6</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B83" s="16">
-        <v>7.9400000000000006E-5</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" s="8">
-        <v>6</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F83" s="9">
+      <c r="A83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="28">
+        <v>7.9099999999999998E-5</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <v>6</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84" s="16">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84" s="8">
-        <v>6</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F84" s="9">
+      <c r="A84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="28">
+        <v>4.6300000000000001E-5</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <v>6</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85" s="16">
-        <v>4.0099999999999999E-5</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85" s="8">
-        <v>6</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F85" s="9">
+      <c r="A85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="28">
+        <v>7.8300000000000006E-5</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <v>6</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" s="16">
-        <v>8.5500000000000005E-5</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" s="8">
-        <v>6</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F86" s="9">
+      <c r="A86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="28">
+        <v>7.8399999999999995E-5</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>6</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" s="16">
-        <v>8.1799999999999996E-5</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D87" s="8">
-        <v>6</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F87" s="9">
+      <c r="A87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="28">
+        <v>7.8499999999999997E-5</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>6</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" s="16">
-        <v>8.5599999999999994E-5</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88" s="8">
-        <v>6</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F88" s="9">
+      <c r="A88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="28">
+        <v>8.0500000000000005E-5</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>6</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="16">
-        <v>7.9200000000000001E-5</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" s="8">
-        <v>6</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F89" s="9">
+      <c r="A89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="28">
+        <v>3.8099999999999998E-5</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>6</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" s="16">
-        <v>7.7700000000000005E-5</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90" s="8">
-        <v>6</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F90" s="9">
+      <c r="A90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="28">
+        <v>7.8499999999999997E-5</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>6</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" s="16">
+      <c r="A91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="28">
+        <v>7.8200000000000003E-5</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <v>6</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="28">
+        <v>7.8200000000000003E-5</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>6</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="28">
+        <v>8.1699999999999994E-5</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>6</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="28">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>6</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="28">
+        <v>3.9799999999999998E-5</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <v>6</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="28">
+        <v>4.0200000000000001E-5</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <v>6</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="28">
+        <v>7.9699999999999999E-5</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
+        <v>6</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="28">
+        <v>7.8899999999999993E-5</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <v>6</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="28">
+        <v>8.1199999999999995E-5</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <v>6</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="28">
+        <v>7.7999999999999999E-5</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>6</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="28">
         <v>7.9300000000000003E-5</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91" s="8">
-        <v>6</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F91" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" s="16">
-        <v>8.3200000000000003E-5</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" s="8">
-        <v>6</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F92" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B93" s="16">
-        <v>8.1799999999999996E-5</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93" s="8">
-        <v>6</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F93" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" s="16">
-        <v>1.016E-4</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D94" s="8">
-        <v>6</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F94" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" s="16">
-        <v>8.03E-5</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D95" s="8">
-        <v>6</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F95" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" s="16">
-        <v>8.2000000000000001E-5</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D96" s="8">
-        <v>6</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F96" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97" s="16">
-        <v>9.3900000000000006E-5</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" s="8">
-        <v>6</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F97" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" s="16">
-        <v>7.75E-5</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D98" s="8">
-        <v>6</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F98" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B99" s="16">
-        <v>7.7399999999999998E-5</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D99" s="8">
-        <v>6</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F99" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B100" s="16">
-        <v>7.8999999999999996E-5</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100" s="8">
-        <v>6</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F100" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B101" s="16">
-        <v>7.8899999999999993E-5</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" s="8">
-        <v>6</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F101" s="9">
+      <c r="C101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
+        <v>6</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102" s="16">
-        <v>7.86E-5</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D102" s="8">
-        <v>6</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F102" s="9">
+      <c r="A102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="28">
+        <v>7.9300000000000003E-5</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <v>6</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F102" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B103" s="16">
-        <v>3.9900000000000001E-5</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D103" s="8">
-        <v>6</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F103" s="9">
+      <c r="A103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="28">
+        <v>7.8300000000000006E-5</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
+        <v>6</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" s="16">
-        <v>7.7899999999999996E-5</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104" s="8">
-        <v>6</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F104" s="9">
+      <c r="A104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="28">
+        <v>4.5800000000000002E-5</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <v>6</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105" s="17">
+        <v>5</v>
+      </c>
+      <c r="B105" s="15">
         <f>SUM(B80:B104)/25</f>
-        <v>7.440000000000002E-5</v>
+        <v>7.2620000000000006E-5</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" s="18">
+        <v>6</v>
+      </c>
+      <c r="F105" s="16">
         <f>SUM(F81:F104)/25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="15"/>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2.343E-4</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <v>9</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B107" s="14">
-        <v>6.1039999999999998E-4</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D107" s="4">
+      <c r="A107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2.2680000000000001E-4</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
         <v>9</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F107" s="5">
+      <c r="E107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F107" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="1">
+        <v>3.191E-4</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>9</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="1">
+        <v>3.1609999999999999E-4</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <v>9</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B108" s="16">
-        <v>4.1120000000000002E-4</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D108" s="8">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="1">
+        <v>4.55E-4</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
         <v>9</v>
       </c>
-      <c r="E108" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F108" s="9">
+      <c r="E110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B109" s="16">
-        <v>3.0840000000000002E-4</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" s="8">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="1">
+        <v>5.2660000000000001E-4</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1">
         <v>9</v>
       </c>
-      <c r="E109" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F109" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B110" s="16">
-        <v>2.152E-4</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D110" s="8">
+      <c r="E111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F111" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="1">
+        <v>2.1249999999999999E-4</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
         <v>9</v>
       </c>
-      <c r="E110" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F110" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B111" s="16">
-        <v>3.6269999999999998E-4</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D111" s="8">
+      <c r="E112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="1">
+        <v>4.0519999999999998E-4</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1">
         <v>9</v>
       </c>
-      <c r="E111" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F111" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B112" s="16">
-        <v>3.0400000000000002E-4</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112" s="8">
+      <c r="E113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F113" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
         <v>9</v>
       </c>
-      <c r="E112" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F112" s="9">
+      <c r="E114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B113" s="16">
-        <v>3.0440000000000003E-4</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D113" s="8">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="1">
+        <v>5.0489999999999997E-4</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
         <v>9</v>
       </c>
-      <c r="E113" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F113" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B114" s="16">
-        <v>2.0489999999999999E-4</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D114" s="8">
+      <c r="E115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="1">
+        <v>3.054E-4</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
         <v>9</v>
       </c>
-      <c r="E114" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F114" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B115" s="16">
-        <v>4.0680000000000002E-4</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D115" s="8">
+      <c r="E116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" s="1">
+        <v>3.1809999999999998E-4</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1">
         <v>9</v>
       </c>
-      <c r="E115" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F115" s="9">
+      <c r="E117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F117" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="1">
+        <v>4.0719999999999998E-4</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <v>9</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F118" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="1">
+        <v>3.0529999999999999E-4</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1">
+        <v>9</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F119" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B116" s="16">
-        <v>4.0410000000000001E-4</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D116" s="8">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" s="1">
+        <v>5.8969999999999997E-4</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
         <v>9</v>
       </c>
-      <c r="E116" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F116" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B117" s="16">
-        <v>4.1060000000000001E-4</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D117" s="8">
+      <c r="E120" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F120" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" s="1">
+        <v>3.0140000000000001E-4</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1">
         <v>9</v>
       </c>
-      <c r="E117" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F117" s="9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B118" s="16">
-        <v>3.0479999999999998E-4</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D118" s="8">
+      <c r="E121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" s="1">
+        <v>4.728E-4</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
         <v>9</v>
       </c>
-      <c r="E118" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F118" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B119" s="16">
-        <v>4.0539999999999999E-4</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D119" s="8">
+      <c r="E122" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F122" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="1">
+        <v>3.0079999999999999E-4</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
         <v>9</v>
       </c>
-      <c r="E119" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F119" s="9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B120" s="16">
-        <v>2.1220000000000001E-4</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D120" s="8">
+      <c r="E123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F123" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" s="1">
+        <v>5.3359999999999996E-4</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
         <v>9</v>
       </c>
-      <c r="E120" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F120" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121" s="16">
-        <v>3.1149999999999998E-4</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D121" s="8">
+      <c r="E124" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F124" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="1">
+        <v>3.122E-4</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
         <v>9</v>
       </c>
-      <c r="E121" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F121" s="9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B122" s="16">
-        <v>4.0420000000000001E-4</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D122" s="8">
+      <c r="E125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F125" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" s="1">
+        <v>5.3280000000000005E-4</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
         <v>9</v>
       </c>
-      <c r="E122" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F122" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B123" s="16">
-        <v>4.9799999999999996E-4</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D123" s="8">
+      <c r="E126" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F126" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" s="1">
+        <v>2.1550000000000001E-4</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
         <v>9</v>
       </c>
-      <c r="E123" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F123" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B124" s="16">
-        <v>3.1080000000000002E-4</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D124" s="8">
+      <c r="E127" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" s="1">
+        <v>6.0059999999999996E-4</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
         <v>9</v>
       </c>
-      <c r="E124" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F124" s="9">
+      <c r="E128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F128" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" s="1">
+        <v>3.4769999999999999E-4</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
+        <v>9</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F129" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B125" s="16">
-        <v>1.996E-4</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D125" s="8">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" s="1">
+        <v>3.1579999999999998E-4</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
         <v>9</v>
       </c>
-      <c r="E125" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F125" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B126" s="16">
-        <v>2.0139999999999999E-4</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D126" s="8">
-        <v>9</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F126" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" s="16">
-        <v>1.996E-4</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D127" s="8">
-        <v>9</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F127" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B128" s="16">
-        <v>2.967E-4</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D128" s="8">
-        <v>9</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F128" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B129" s="16">
-        <v>4.9470000000000004E-4</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D129" s="8">
-        <v>9</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F129" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B130" s="16">
-        <v>4.9930000000000005E-4</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D130" s="8">
-        <v>9</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F130" s="9">
-        <v>29</v>
+      <c r="E130" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F130" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B131" s="17">
+        <v>5</v>
+      </c>
+      <c r="B131" s="15">
         <f>SUM(B106:B130)/25</f>
-        <v>3.3123600000000011E-4</v>
+        <v>3.74576E-4</v>
       </c>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
       <c r="E131" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F131" s="18">
+        <v>6</v>
+      </c>
+      <c r="F131" s="16">
         <f>SUM(F107:F130)/25</f>
-        <v>9.92</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="15"/>
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="1">
+        <v>4.9510000000000005E-4</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>12</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F132" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B133" s="14">
-        <v>3.6820000000000001E-4</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D133" s="4">
-        <v>12</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F133" s="5">
-        <v>24</v>
+      <c r="A133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="1">
+        <v>9.4459999999999998E-4</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1">
+        <v>12</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F133" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B134" s="16">
-        <v>5.4609999999999999E-4</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D134" s="8">
-        <v>12</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F134" s="9">
-        <v>8</v>
+      <c r="A134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" s="1">
+        <v>3.8440000000000002E-4</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1">
+        <v>12</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F134" s="1">
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B135" s="16">
-        <v>3.8410000000000001E-4</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D135" s="8">
-        <v>12</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F135" s="9">
+      <c r="A135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="1">
+        <v>4.1100000000000002E-4</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1">
+        <v>12</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F135" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" s="1">
+        <v>7.9299999999999998E-4</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1">
+        <v>12</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F136" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" s="1">
+        <v>5.7760000000000005E-4</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1">
+        <v>12</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F137" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" s="1">
+        <v>3.815E-4</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <v>12</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F138" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" s="1">
+        <v>7.5619999999999995E-4</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139" s="1">
+        <v>12</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" s="1">
+        <v>3.746E-4</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
+        <v>12</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F140" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" s="1">
+        <v>7.6090000000000001E-4</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141" s="1">
+        <v>12</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F141" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" s="1">
+        <v>7.8600000000000002E-4</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1">
+        <v>12</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F142" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" s="1">
+        <v>3.8559999999999999E-4</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143" s="1">
+        <v>12</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F143" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" s="1">
+        <v>5.7910000000000004E-4</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
+        <v>12</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F144" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" s="1">
+        <v>9.7179999999999999E-4</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D145" s="1">
+        <v>12</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F145" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" s="1">
+        <v>5.9969999999999999E-4</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146" s="1">
+        <v>12</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F146" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" s="1">
+        <v>5.687E-4</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1">
+        <v>12</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F147" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B136" s="16">
-        <v>3.6759999999999999E-4</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D136" s="8">
-        <v>12</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F136" s="9">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148" s="1">
+        <v>3.7740000000000001E-4</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1">
+        <v>12</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F148" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" s="1">
+        <v>5.7870000000000003E-4</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149" s="1">
+        <v>12</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F149" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" s="1">
+        <v>3.7589999999999998E-4</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1">
+        <v>12</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F150" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B151" s="1">
+        <v>9.7530000000000002E-4</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D151" s="1">
+        <v>12</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F151" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1.1183E-3</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1">
+        <v>12</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F152" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" s="1">
+        <v>5.6439999999999995E-4</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1">
+        <v>12</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F153" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154" s="1">
+        <v>7.5179999999999995E-4</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D154" s="1">
+        <v>12</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F154" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" s="1">
+        <v>3.7659999999999999E-4</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D155" s="1">
+        <v>12</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F155" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B137" s="16">
-        <v>3.7070000000000001E-4</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D137" s="8">
-        <v>12</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F137" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B138" s="16">
-        <v>7.5580000000000005E-4</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D138" s="8">
-        <v>12</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F138" s="9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B139" s="16">
-        <v>5.5880000000000003E-4</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D139" s="8">
-        <v>12</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F139" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B140" s="16">
-        <v>3.7090000000000002E-4</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D140" s="8">
-        <v>12</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F140" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B141" s="16">
-        <v>3.6230000000000002E-4</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D141" s="8">
-        <v>12</v>
-      </c>
-      <c r="E141" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F141" s="9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B142" s="16">
-        <v>5.4609999999999999E-4</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D142" s="8">
-        <v>12</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F142" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B143" s="16">
-        <v>5.4710000000000002E-4</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D143" s="8">
-        <v>12</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F143" s="9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B144" s="16">
-        <v>3.6380000000000001E-4</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D144" s="8">
-        <v>12</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F144" s="9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B145" s="16">
-        <v>9.4180000000000002E-4</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D145" s="8">
-        <v>12</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F145" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B146" s="16">
-        <v>5.6800000000000004E-4</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D146" s="8">
-        <v>12</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F146" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B147" s="16">
-        <v>7.5569999999999999E-4</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D147" s="8">
-        <v>12</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F147" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B148" s="16">
-        <v>7.4319999999999996E-4</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D148" s="8">
-        <v>12</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F148" s="9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B149" s="16">
-        <v>5.5820000000000002E-4</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D149" s="8">
-        <v>12</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F149" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B150" s="16">
-        <v>7.4609999999999998E-4</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D150" s="8">
-        <v>12</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F150" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B151" s="16">
-        <v>7.7939999999999997E-4</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D151" s="8">
-        <v>12</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F151" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B152" s="16">
-        <v>5.4839999999999999E-4</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D152" s="8">
-        <v>12</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F152" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153" s="16">
-        <v>3.7270000000000001E-4</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D153" s="8">
-        <v>12</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F153" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" s="16">
-        <v>7.5000000000000002E-4</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D154" s="8">
-        <v>12</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F154" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B155" s="16">
-        <v>1.2355000000000001E-3</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D155" s="8">
-        <v>12</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F155" s="9">
-        <v>16</v>
-      </c>
-    </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B156" s="16">
-        <v>9.9200000000000004E-4</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D156" s="8">
-        <v>12</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F156" s="9">
-        <v>22</v>
+      <c r="A156" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156" s="1">
+        <v>5.7220000000000003E-4</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1">
+        <v>12</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F156" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B157" s="17">
+        <v>5</v>
+      </c>
+      <c r="B157" s="15">
         <f>SUM(B132:B156)/25</f>
-        <v>5.8129999999999998E-4</v>
+        <v>6.18416E-4</v>
       </c>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
       <c r="E157" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F157" s="18">
+        <v>6</v>
+      </c>
+      <c r="F157" s="16">
         <f>SUM(F133:F156)/25</f>
-        <v>17.84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="15"/>
+      <c r="B158" s="13"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B159" s="14">
+        <v>4</v>
+      </c>
+      <c r="B159" s="12">
         <v>4.1300000000000001E-5</v>
       </c>
       <c r="C159" s="3" t="s">
@@ -5324,9 +5463,9 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B160" s="16">
+        <v>4</v>
+      </c>
+      <c r="B160" s="14">
         <v>1.384E-4</v>
       </c>
       <c r="C160" s="7" t="s">
@@ -5344,9 +5483,9 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B161" s="16">
+        <v>4</v>
+      </c>
+      <c r="B161" s="14">
         <v>1.38E-5</v>
       </c>
       <c r="C161" s="7" t="s">
@@ -5364,9 +5503,9 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B162" s="16">
+        <v>4</v>
+      </c>
+      <c r="B162" s="14">
         <v>2.441E-4</v>
       </c>
       <c r="C162" s="7" t="s">
@@ -5384,9 +5523,9 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B163" s="16">
+        <v>4</v>
+      </c>
+      <c r="B163" s="14">
         <v>1.908E-4</v>
       </c>
       <c r="C163" s="7" t="s">
@@ -5404,9 +5543,9 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B164" s="16">
+        <v>4</v>
+      </c>
+      <c r="B164" s="14">
         <v>3.4220000000000002E-4</v>
       </c>
       <c r="C164" s="7" t="s">
@@ -5424,9 +5563,9 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B165" s="16">
+        <v>4</v>
+      </c>
+      <c r="B165" s="14">
         <v>8.1699999999999994E-5</v>
       </c>
       <c r="C165" s="7" t="s">
@@ -5444,9 +5583,9 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B166" s="16">
+        <v>4</v>
+      </c>
+      <c r="B166" s="14">
         <v>6.9300000000000004E-5</v>
       </c>
       <c r="C166" s="7" t="s">
@@ -5464,9 +5603,9 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B167" s="16">
+        <v>4</v>
+      </c>
+      <c r="B167" s="14">
         <v>1.36E-4</v>
       </c>
       <c r="C167" s="7" t="s">
@@ -5484,9 +5623,9 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B168" s="16">
+        <v>4</v>
+      </c>
+      <c r="B168" s="14">
         <v>1.7579999999999999E-4</v>
       </c>
       <c r="C168" s="7" t="s">
@@ -5504,9 +5643,9 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B169" s="16">
+        <v>4</v>
+      </c>
+      <c r="B169" s="14">
         <v>1.52E-5</v>
       </c>
       <c r="C169" s="7" t="s">
@@ -5524,9 +5663,9 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B170" s="16">
+        <v>4</v>
+      </c>
+      <c r="B170" s="14">
         <v>5.4200000000000003E-5</v>
       </c>
       <c r="C170" s="7" t="s">
@@ -5544,9 +5683,9 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B171" s="16">
+        <v>4</v>
+      </c>
+      <c r="B171" s="14">
         <v>1.2320000000000001E-4</v>
       </c>
       <c r="C171" s="7" t="s">
@@ -5564,9 +5703,9 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B172" s="16">
+        <v>4</v>
+      </c>
+      <c r="B172" s="14">
         <v>1.7760000000000001E-4</v>
       </c>
       <c r="C172" s="7" t="s">
@@ -5584,9 +5723,9 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B173" s="16">
+        <v>4</v>
+      </c>
+      <c r="B173" s="14">
         <v>4.1199999999999999E-5</v>
       </c>
       <c r="C173" s="7" t="s">
@@ -5604,9 +5743,9 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B174" s="16">
+        <v>4</v>
+      </c>
+      <c r="B174" s="14">
         <v>1.4100000000000001E-5</v>
       </c>
       <c r="C174" s="7" t="s">
@@ -5624,9 +5763,9 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B175" s="16">
+        <v>4</v>
+      </c>
+      <c r="B175" s="14">
         <v>4.0800000000000002E-5</v>
       </c>
       <c r="C175" s="7" t="s">
@@ -5644,9 +5783,9 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B176" s="16">
+        <v>4</v>
+      </c>
+      <c r="B176" s="14">
         <v>4.4880000000000001E-4</v>
       </c>
       <c r="C176" s="7" t="s">
@@ -5664,9 +5803,9 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B177" s="16">
+        <v>4</v>
+      </c>
+      <c r="B177" s="14">
         <v>1.392E-4</v>
       </c>
       <c r="C177" s="7" t="s">
@@ -5684,9 +5823,9 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B178" s="16">
+        <v>4</v>
+      </c>
+      <c r="B178" s="14">
         <v>1.4E-5</v>
       </c>
       <c r="C178" s="7" t="s">
@@ -5704,9 +5843,9 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B179" s="16">
+        <v>4</v>
+      </c>
+      <c r="B179" s="14">
         <v>5.5999999999999999E-5</v>
       </c>
       <c r="C179" s="7" t="s">
@@ -5724,9 +5863,9 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B180" s="16">
+        <v>4</v>
+      </c>
+      <c r="B180" s="14">
         <v>2.7800000000000001E-5</v>
       </c>
       <c r="C180" s="7" t="s">
@@ -5744,9 +5883,9 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B181" s="16">
+        <v>4</v>
+      </c>
+      <c r="B181" s="14">
         <v>1.9110000000000001E-4</v>
       </c>
       <c r="C181" s="7" t="s">
@@ -5764,9 +5903,9 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B182" s="16">
+        <v>4</v>
+      </c>
+      <c r="B182" s="14">
         <v>3.2019999999999998E-4</v>
       </c>
       <c r="C182" s="7" t="s">
@@ -5784,30 +5923,30 @@
     </row>
     <row r="183" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B183" s="17">
+        <v>5</v>
+      </c>
+      <c r="B183" s="15">
         <f>SUM(B158:B182)/25</f>
         <v>1.2387200000000002E-4</v>
       </c>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
       <c r="E183" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F183" s="18">
+        <v>6</v>
+      </c>
+      <c r="F183" s="16">
         <f>SUM(F159:F182)/25</f>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="15"/>
+      <c r="B184" s="13"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B185" s="14">
+        <v>4</v>
+      </c>
+      <c r="B185" s="12">
         <v>1.6099999999999998E-5</v>
       </c>
       <c r="C185" s="3" t="s">
@@ -5825,9 +5964,9 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B186" s="16">
+        <v>4</v>
+      </c>
+      <c r="B186" s="14">
         <v>1.2875E-3</v>
       </c>
       <c r="C186" s="7" t="s">
@@ -5845,9 +5984,9 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B187" s="16">
+        <v>4</v>
+      </c>
+      <c r="B187" s="14">
         <v>2.6998E-3</v>
       </c>
       <c r="C187" s="7" t="s">
@@ -5865,9 +6004,9 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B188" s="16">
+        <v>4</v>
+      </c>
+      <c r="B188" s="14">
         <v>6.3789999999999995E-4</v>
       </c>
       <c r="C188" s="7" t="s">
@@ -5885,9 +6024,9 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B189" s="16">
+        <v>4</v>
+      </c>
+      <c r="B189" s="14">
         <v>7.1387000000000004E-3</v>
       </c>
       <c r="C189" s="7" t="s">
@@ -5905,9 +6044,9 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B190" s="16">
+        <v>4</v>
+      </c>
+      <c r="B190" s="14">
         <v>1.4935E-3</v>
       </c>
       <c r="C190" s="7" t="s">
@@ -5925,9 +6064,9 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B191" s="16">
+        <v>4</v>
+      </c>
+      <c r="B191" s="14">
         <v>2.24104E-2</v>
       </c>
       <c r="C191" s="7" t="s">
@@ -5945,9 +6084,9 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B192" s="16">
+        <v>4</v>
+      </c>
+      <c r="B192" s="14">
         <v>1.20386E-2</v>
       </c>
       <c r="C192" s="7" t="s">
@@ -5965,9 +6104,9 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B193" s="16">
+        <v>4</v>
+      </c>
+      <c r="B193" s="14">
         <v>3.8259999999999998E-4</v>
       </c>
       <c r="C193" s="7" t="s">
@@ -5985,9 +6124,9 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B194" s="16">
+        <v>4</v>
+      </c>
+      <c r="B194" s="14">
         <v>1.8407E-3</v>
       </c>
       <c r="C194" s="7" t="s">
@@ -6005,9 +6144,9 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B195" s="16">
+        <v>4</v>
+      </c>
+      <c r="B195" s="14">
         <v>1.3744E-3</v>
       </c>
       <c r="C195" s="7" t="s">
@@ -6025,9 +6164,9 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B196" s="16">
+        <v>4</v>
+      </c>
+      <c r="B196" s="14">
         <v>1.8092E-3</v>
       </c>
       <c r="C196" s="7" t="s">
@@ -6045,9 +6184,9 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B197" s="16">
+        <v>4</v>
+      </c>
+      <c r="B197" s="14">
         <v>1.9577000000000002E-3</v>
       </c>
       <c r="C197" s="7" t="s">
@@ -6065,9 +6204,9 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B198" s="16">
+        <v>4</v>
+      </c>
+      <c r="B198" s="14">
         <v>6.2899999999999997E-5</v>
       </c>
       <c r="C198" s="7" t="s">
@@ -6085,9 +6224,9 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B199" s="16">
+        <v>4</v>
+      </c>
+      <c r="B199" s="14">
         <v>2.253E-4</v>
       </c>
       <c r="C199" s="7" t="s">
@@ -6105,9 +6244,9 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B200" s="16">
+        <v>4</v>
+      </c>
+      <c r="B200" s="14">
         <v>1.4888E-3</v>
       </c>
       <c r="C200" s="7" t="s">
@@ -6125,9 +6264,9 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B201" s="16">
+        <v>4</v>
+      </c>
+      <c r="B201" s="14">
         <v>8.1954000000000003E-3</v>
       </c>
       <c r="C201" s="7" t="s">
@@ -6145,9 +6284,9 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B202" s="16">
+        <v>4</v>
+      </c>
+      <c r="B202" s="14">
         <v>9.1211E-3</v>
       </c>
       <c r="C202" s="7" t="s">
@@ -6165,9 +6304,9 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B203" s="16">
+        <v>4</v>
+      </c>
+      <c r="B203" s="14">
         <v>1.0047999999999999E-3</v>
       </c>
       <c r="C203" s="7" t="s">
@@ -6185,9 +6324,9 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B204" s="16">
+        <v>4</v>
+      </c>
+      <c r="B204" s="14">
         <v>4.0597999999999997E-3</v>
       </c>
       <c r="C204" s="7" t="s">
@@ -6205,9 +6344,9 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B205" s="16">
+        <v>4</v>
+      </c>
+      <c r="B205" s="14">
         <v>8.1769999999999998E-4</v>
       </c>
       <c r="C205" s="7" t="s">
@@ -6225,9 +6364,9 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B206" s="16">
+        <v>4</v>
+      </c>
+      <c r="B206" s="14">
         <v>2.2087000000000001E-3</v>
       </c>
       <c r="C206" s="7" t="s">
@@ -6245,9 +6384,9 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B207" s="16">
+        <v>4</v>
+      </c>
+      <c r="B207" s="14">
         <v>1.3959E-3</v>
       </c>
       <c r="C207" s="7" t="s">
@@ -6265,9 +6404,9 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B208" s="16">
+        <v>4</v>
+      </c>
+      <c r="B208" s="14">
         <v>4.5665999999999997E-3</v>
       </c>
       <c r="C208" s="7" t="s">
@@ -6285,30 +6424,30 @@
     </row>
     <row r="209" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B209" s="17">
+        <v>5</v>
+      </c>
+      <c r="B209" s="15">
         <f>SUM(B184:B208)/25</f>
         <v>3.5293639999999997E-3</v>
       </c>
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
       <c r="E209" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F209" s="18">
+        <v>6</v>
+      </c>
+      <c r="F209" s="16">
         <f>SUM(F185:F208)/25</f>
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="15"/>
+      <c r="B210" s="13"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B211" s="14">
+        <v>4</v>
+      </c>
+      <c r="B211" s="12">
         <v>0.120617</v>
       </c>
       <c r="C211" s="3" t="s">
@@ -6326,9 +6465,9 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B212" s="16">
+        <v>4</v>
+      </c>
+      <c r="B212" s="14">
         <v>0.63455899999999998</v>
       </c>
       <c r="C212" s="7" t="s">
@@ -6346,9 +6485,9 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B213" s="16">
+        <v>4</v>
+      </c>
+      <c r="B213" s="14">
         <v>0.197856</v>
       </c>
       <c r="C213" s="7" t="s">
@@ -6366,9 +6505,9 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B214" s="16">
+        <v>4</v>
+      </c>
+      <c r="B214" s="14">
         <v>0.31042399999999998</v>
       </c>
       <c r="C214" s="7" t="s">
@@ -6386,9 +6525,9 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B215" s="16">
+        <v>4</v>
+      </c>
+      <c r="B215" s="14">
         <v>0.319631</v>
       </c>
       <c r="C215" s="7" t="s">
@@ -6406,9 +6545,9 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B216" s="16">
+        <v>4</v>
+      </c>
+      <c r="B216" s="14">
         <v>0.29911900000000002</v>
       </c>
       <c r="C216" s="7" t="s">
@@ -6426,9 +6565,9 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B217" s="16">
+        <v>4</v>
+      </c>
+      <c r="B217" s="14">
         <v>7.4139300000000005E-2</v>
       </c>
       <c r="C217" s="7" t="s">
@@ -6446,9 +6585,9 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B218" s="16">
+        <v>4</v>
+      </c>
+      <c r="B218" s="14">
         <v>9.8123600000000005E-2</v>
       </c>
       <c r="C218" s="7" t="s">
@@ -6466,9 +6605,9 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B219" s="16">
+        <v>4</v>
+      </c>
+      <c r="B219" s="14">
         <v>1.1596800000000001E-2</v>
       </c>
       <c r="C219" s="7" t="s">
@@ -6486,9 +6625,9 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B220" s="16">
+        <v>4</v>
+      </c>
+      <c r="B220" s="14">
         <v>0.29349599999999998</v>
       </c>
       <c r="C220" s="7" t="s">
@@ -6506,9 +6645,9 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B221" s="16">
+        <v>4</v>
+      </c>
+      <c r="B221" s="14">
         <v>0.29473700000000003</v>
       </c>
       <c r="C221" s="7" t="s">
@@ -6526,9 +6665,9 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B222" s="16">
+        <v>4</v>
+      </c>
+      <c r="B222" s="14">
         <v>0.21900600000000001</v>
       </c>
       <c r="C222" s="7" t="s">
@@ -6546,9 +6685,9 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B223" s="16">
+        <v>4</v>
+      </c>
+      <c r="B223" s="14">
         <v>0.13495799999999999</v>
       </c>
       <c r="C223" s="7" t="s">
@@ -6566,9 +6705,9 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B224" s="16">
+        <v>4</v>
+      </c>
+      <c r="B224" s="14">
         <v>8.9942800000000003E-2</v>
       </c>
       <c r="C224" s="7" t="s">
@@ -6586,9 +6725,9 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B225" s="16">
+        <v>4</v>
+      </c>
+      <c r="B225" s="14">
         <v>0.109958</v>
       </c>
       <c r="C225" s="7" t="s">
@@ -6606,9 +6745,9 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B226" s="16">
+        <v>4</v>
+      </c>
+      <c r="B226" s="14">
         <v>2.63772E-2</v>
       </c>
       <c r="C226" s="7" t="s">
@@ -6626,9 +6765,9 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B227" s="16">
+        <v>4</v>
+      </c>
+      <c r="B227" s="14">
         <v>0.23683299999999999</v>
       </c>
       <c r="C227" s="7" t="s">
@@ -6646,9 +6785,9 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B228" s="16">
+        <v>4</v>
+      </c>
+      <c r="B228" s="14">
         <v>0.18870999999999999</v>
       </c>
       <c r="C228" s="7" t="s">
@@ -6666,9 +6805,9 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B229" s="16">
+        <v>4</v>
+      </c>
+      <c r="B229" s="14">
         <v>9.2097499999999999E-2</v>
       </c>
       <c r="C229" s="7" t="s">
@@ -6686,9 +6825,9 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B230" s="16">
+        <v>4</v>
+      </c>
+      <c r="B230" s="14">
         <v>0.29269099999999998</v>
       </c>
       <c r="C230" s="7" t="s">
@@ -6706,9 +6845,9 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B231" s="16">
+        <v>4</v>
+      </c>
+      <c r="B231" s="14">
         <v>0.19611799999999999</v>
       </c>
       <c r="C231" s="7" t="s">
@@ -6726,9 +6865,9 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B232" s="16">
+        <v>4</v>
+      </c>
+      <c r="B232" s="14">
         <v>0.16953799999999999</v>
       </c>
       <c r="C232" s="7" t="s">
@@ -6746,9 +6885,9 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B233" s="16">
+        <v>4</v>
+      </c>
+      <c r="B233" s="14">
         <v>6.5392400000000003E-2</v>
       </c>
       <c r="C233" s="7" t="s">
@@ -6766,9 +6905,9 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B234" s="16">
+        <v>4</v>
+      </c>
+      <c r="B234" s="14">
         <v>0.36761500000000003</v>
       </c>
       <c r="C234" s="7" t="s">
@@ -6786,105 +6925,1080 @@
     </row>
     <row r="235" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B235" s="17">
+        <v>5</v>
+      </c>
+      <c r="B235" s="15">
         <f>SUM(B210:B234)/25</f>
         <v>0.193741424</v>
       </c>
       <c r="C235" s="11"/>
       <c r="D235" s="11"/>
       <c r="E235" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F235" s="18">
+        <v>6</v>
+      </c>
+      <c r="F235" s="16">
         <f>SUM(F211:F234)/25</f>
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B236" s="15"/>
+      <c r="B236" s="13"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B237" s="15"/>
+      <c r="A237" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B237" s="1">
+        <v>1.5792E-3</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D237" s="1">
+        <v>24</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F237" s="1">
+        <v>66</v>
+      </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B238" s="15"/>
+      <c r="A238" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B238" s="1">
+        <v>3.1462999999999999E-3</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D238" s="1">
+        <v>24</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F238" s="1">
+        <v>58</v>
+      </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B239" s="15"/>
+      <c r="A239" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B239" s="1">
+        <v>4.6430999999999998E-3</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D239" s="1">
+        <v>24</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F239" s="1">
+        <v>56</v>
+      </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B240" s="15"/>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B241" s="15"/>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B242" s="15"/>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B243" s="15"/>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B244" s="15"/>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B245" s="15"/>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B246" s="15"/>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B247" s="15"/>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B248" s="15"/>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B249" s="15"/>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B250" s="15"/>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B251" s="15"/>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B252" s="15"/>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B253" s="15"/>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B254" s="15"/>
-    </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B255" s="15"/>
-    </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B256" s="15"/>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B257" s="15"/>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B258" s="15"/>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B259" s="15"/>
-    </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B260" s="15"/>
-    </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B261" s="15"/>
-    </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B262" s="15"/>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B263" s="15"/>
+      <c r="A240" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B240" s="1">
+        <v>2.5330000000000001E-3</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D240" s="1">
+        <v>24</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F240" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B241" s="1">
+        <v>3.9401000000000002E-3</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D241" s="1">
+        <v>24</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F241" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B242" s="1">
+        <v>2.2434E-3</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D242" s="1">
+        <v>24</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F242" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B243" s="1">
+        <v>1.5296000000000001E-3</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D243" s="1">
+        <v>24</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F243" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B244" s="1">
+        <v>2.3191000000000002E-3</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D244" s="1">
+        <v>24</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F244" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B245" s="1">
+        <v>2.3156000000000001E-3</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D245" s="1">
+        <v>24</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F245" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B246" s="1">
+        <v>3.5116000000000001E-3</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D246" s="1">
+        <v>24</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F246" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B247" s="1">
+        <v>2.1503999999999998E-3</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D247" s="1">
+        <v>24</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F247" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B248" s="1">
+        <v>3.6893999999999998E-3</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D248" s="1">
+        <v>24</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F248" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B249" s="1">
+        <v>1.4813000000000001E-3</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D249" s="1">
+        <v>24</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F249" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B250" s="1">
+        <v>1.4781E-3</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D250" s="1">
+        <v>24</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F250" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B251" s="1">
+        <v>3.7025999999999999E-3</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D251" s="1">
+        <v>24</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F251" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B252" s="1">
+        <v>1.4813999999999999E-3</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D252" s="1">
+        <v>24</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F252" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B253" s="1">
+        <v>3.8289000000000001E-3</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D253" s="1">
+        <v>24</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F253" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B254" s="1">
+        <v>2.947E-3</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D254" s="1">
+        <v>24</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F254" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B255" s="1">
+        <v>3.6811999999999999E-3</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D255" s="1">
+        <v>24</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F255" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B256" s="1">
+        <v>1.4782E-3</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D256" s="1">
+        <v>24</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F256" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B257" s="1">
+        <v>1.4702000000000001E-3</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D257" s="1">
+        <v>24</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F257" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B258" s="1">
+        <v>1.4645999999999999E-3</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D258" s="1">
+        <v>24</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F258" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B259" s="1">
+        <v>2.3389999999999999E-3</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D259" s="1">
+        <v>24</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F259" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B260" s="1">
+        <v>3.0197000000000002E-3</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D260" s="1">
+        <v>24</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F260" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B261" s="1">
+        <v>2.2198999999999999E-3</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D261" s="1">
+        <v>24</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F261" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B262" s="8">
+        <v>1.5949E-3</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D262" s="8">
+        <v>24</v>
+      </c>
+      <c r="E262" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F262" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263" s="15">
+        <f>SUM(B238:B262)/25</f>
+        <v>2.5683440000000002E-3</v>
+      </c>
+      <c r="C263" s="11"/>
+      <c r="D263" s="11"/>
+      <c r="E263" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F263" s="16">
+        <f>SUM(F239:F262)/25</f>
+        <v>68.959999999999994</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B265" s="1">
+        <v>9.2726600000000001</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D265" s="1">
+        <v>24</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F265" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B266" s="1">
+        <v>9.3695000000000004</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D266" s="1">
+        <v>24</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F266" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B267" s="1">
+        <v>9.2678399999999996</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D267" s="1">
+        <v>24</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F267" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B268" s="1">
+        <v>9.6947399999999995</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D268" s="1">
+        <v>24</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F268" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B269" s="1">
+        <v>9.5445200000000003</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D269" s="1">
+        <v>24</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F269" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B270" s="1">
+        <v>9.3861899999999991</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D270" s="1">
+        <v>24</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F270" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B271" s="1">
+        <v>9.2605500000000003</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D271" s="1">
+        <v>24</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F271" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B272" s="1">
+        <v>9.4844200000000001</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D272" s="1">
+        <v>24</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F272" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B273" s="1">
+        <v>8.7729800000000004</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D273" s="1">
+        <v>24</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F273" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B274" s="1">
+        <v>9.5469899999999992</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D274" s="1">
+        <v>24</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F274" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B275" s="1">
+        <v>8.9318200000000001</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D275" s="1">
+        <v>24</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F275" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B276" s="1">
+        <v>9.6697399999999991</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D276" s="1">
+        <v>24</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F276" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B277" s="1">
+        <v>9.4816199999999995</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D277" s="1">
+        <v>24</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F277" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B278" s="1">
+        <v>9.5973000000000006</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D278" s="1">
+        <v>24</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F278" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B279" s="1">
+        <v>9.2946000000000009</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D279" s="1">
+        <v>24</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F279" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B280" s="1">
+        <v>9.3208500000000001</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D280" s="1">
+        <v>24</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F280" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B281" s="1">
+        <v>8.9678100000000001</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D281" s="1">
+        <v>24</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F281" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B282" s="1">
+        <v>9.4728700000000003</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D282" s="1">
+        <v>24</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F282" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B283" s="1">
+        <v>9.4881100000000007</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D283" s="1">
+        <v>24</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F283" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B284" s="1">
+        <v>9.4122400000000006</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D284" s="1">
+        <v>24</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F284" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B285" s="1">
+        <v>9.4154900000000001</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D285" s="1">
+        <v>24</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F285" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B286" s="1">
+        <v>9.6588899999999995</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D286" s="1">
+        <v>24</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F286" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B287" s="1">
+        <v>9.5711999999999993</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D287" s="1">
+        <v>24</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F287" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B288" s="1">
+        <v>9.56</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D288" s="1">
+        <v>24</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F288" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B289" s="1">
+        <v>9.6321300000000001</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D289" s="1">
+        <v>24</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F289" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B290" s="15">
+        <f>SUM(B265:B289)/25</f>
+        <v>9.4030024000000001</v>
+      </c>
+      <c r="C290" s="11"/>
+      <c r="D290" s="11"/>
+      <c r="E290" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F290" s="16">
+        <f>SUM(F265:F289)/25</f>
+        <v>58.16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lab02/experiments/experiments.xlsx
+++ b/lab02/experiments/experiments.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\SEM5\MHE\lab02\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MHE\lab02\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7D3D20-2C29-41D5-8E21-40AE8CE6163D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACD09F7-CB58-49CE-A0AA-59ED701B49DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="15">
   <si>
     <t xml:space="preserve">Taboo search duration: </t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>brute</t>
+  </si>
+  <si>
+    <t>Avg: Goal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulated annealing duration: </t>
+  </si>
+  <si>
+    <t>SA</t>
   </si>
 </sst>
 </file>
@@ -412,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -607,6 +616,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -652,7 +698,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -736,6 +782,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1123,6 +1181,64 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>SA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>taboo_M!$J$21:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0692800000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3260799999999978E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2563119999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2688720000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-46C0-4CF3-97AC-00E82A97D307}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1336,7 +1452,653 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Average goal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> value f</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>or</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> 6, 9, 12, 24 numbers</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15014917125130992"/>
+          <c:y val="8.9045561673208914E-2"/>
+          <c:w val="0.84985082874869011"/>
+          <c:h val="0.79053154508024948"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Taboo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>taboo_M!$I$8:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>taboo_M!$J$38:$J$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0756-4FA0-BC77-8F930AB7BD10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Hill climb</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>taboo_M!$I$8:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>taboo_M!$J$42:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.959999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0756-4FA0-BC77-8F930AB7BD10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Brute Force</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>taboo_M!$I$8:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>taboo_M!$J$47:$J$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0756-4FA0-BC77-8F930AB7BD10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>SA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>taboo_M!$J$51:$J$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0756-4FA0-BC77-8F930AB7BD10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1184486752"/>
+        <c:axId val="1184465536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1184486752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184465536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1184465536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184486752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1879,20 +2641,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85573</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>5120</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3076423</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>411381</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>93876</xdr:rowOff>
+      <xdr:colOff>297081</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>160551</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1912,6 +3177,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>335333</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>79231</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2979D53E-D763-45CC-8A76-050CD40EA815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2217,10 +3520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J290"/>
+  <dimension ref="A1:K398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,7 +3927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2653,7 +3956,7 @@
         <v>1.2387200000000002E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2680,7 +3983,7 @@
         <v>3.5293639999999997E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2707,7 +4010,7 @@
         <v>0.193741424</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2727,7 +4030,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2746,8 +4049,17 @@
       <c r="F21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="4">
+        <v>6</v>
+      </c>
+      <c r="J21" s="5">
+        <v>5.0692800000000002E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2766,8 +4078,15 @@
       <c r="F22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H22" s="18"/>
+      <c r="I22" s="8">
+        <v>9</v>
+      </c>
+      <c r="J22" s="9">
+        <v>6.3260799999999978E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2786,8 +4105,15 @@
       <c r="F23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H23" s="18"/>
+      <c r="I23" s="8">
+        <v>12</v>
+      </c>
+      <c r="J23" s="9">
+        <v>1.2563119999999999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2806,8 +4132,18 @@
       <c r="F24">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H24" s="22"/>
+      <c r="I24" s="23">
+        <v>24</v>
+      </c>
+      <c r="J24" s="32">
+        <v>1.2688720000000001E-3</v>
+      </c>
+      <c r="K24" s="16">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2826,8 +4162,11 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
@@ -2844,11 +4183,17 @@
         <f>SUM(F1:F25)/25</f>
         <v>10.039999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2867,8 +4212,11 @@
       <c r="F28" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2887,8 +4235,11 @@
       <c r="F29" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -2907,8 +4258,11 @@
       <c r="F30" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -2927,8 +4281,11 @@
       <c r="F31" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -2947,8 +4304,11 @@
       <c r="F32" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -2967,8 +4327,11 @@
       <c r="F33" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2987,8 +4350,11 @@
       <c r="F34" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -3008,7 +4374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -3028,7 +4394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -3047,8 +4413,15 @@
       <c r="F37" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37" s="29"/>
+      <c r="I37" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -3067,8 +4440,17 @@
       <c r="F38" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="8">
+        <v>6</v>
+      </c>
+      <c r="J38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -3087,8 +4469,15 @@
       <c r="F39" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39" s="18"/>
+      <c r="I39" s="8">
+        <v>9</v>
+      </c>
+      <c r="J39" s="9">
+        <v>10.039999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -3107,8 +4496,15 @@
       <c r="F40" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40" s="18"/>
+      <c r="I40" s="8">
+        <v>12</v>
+      </c>
+      <c r="J40" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -3127,8 +4523,15 @@
       <c r="F41" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H41" s="22"/>
+      <c r="I41" s="23">
+        <v>24</v>
+      </c>
+      <c r="J41" s="24">
+        <v>58.16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -3147,8 +4550,17 @@
       <c r="F42" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="4">
+        <v>6</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -3167,8 +4579,15 @@
       <c r="F43" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H43" s="18"/>
+      <c r="I43" s="8">
+        <v>9</v>
+      </c>
+      <c r="J43" s="9">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -3187,8 +4606,15 @@
       <c r="F44" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44" s="18"/>
+      <c r="I44" s="8">
+        <v>12</v>
+      </c>
+      <c r="J44" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -3207,8 +4633,15 @@
       <c r="F45" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45" s="22"/>
+      <c r="I45" s="23">
+        <v>24</v>
+      </c>
+      <c r="J45" s="24">
+        <v>68.959999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -3228,7 +4661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -3247,8 +4680,17 @@
       <c r="F47" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H47" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="4">
+        <v>6</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -3267,8 +4709,15 @@
       <c r="F48" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48" s="18"/>
+      <c r="I48" s="8">
+        <v>9</v>
+      </c>
+      <c r="J48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -3287,8 +4736,15 @@
       <c r="F49" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49" s="22"/>
+      <c r="I49" s="23">
+        <v>12</v>
+      </c>
+      <c r="J49" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -3308,7 +4764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -3327,8 +4783,17 @@
       <c r="F51" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H51" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="4">
+        <v>6</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -3347,8 +4812,15 @@
       <c r="F52" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H52" s="18"/>
+      <c r="I52" s="8">
+        <v>9</v>
+      </c>
+      <c r="J52" s="9">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>5</v>
       </c>
@@ -3365,8 +4837,15 @@
         <f>SUM(F28:F52)/25</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H53" s="18"/>
+      <c r="I53" s="8">
+        <v>12</v>
+      </c>
+      <c r="J53" s="9">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -3385,8 +4864,15 @@
       <c r="F54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H54" s="22"/>
+      <c r="I54" s="23">
+        <v>24</v>
+      </c>
+      <c r="J54" s="24">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -3406,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -3426,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -3446,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -3466,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -3486,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -3506,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -3526,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -3546,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -3566,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -7998,6 +9484,2078 @@
       <c r="F290" s="16">
         <f>SUM(F265:F289)/25</f>
         <v>58.16</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>13</v>
+      </c>
+      <c r="B292">
+        <v>4.8480000000000002E-4</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>6</v>
+      </c>
+      <c r="E292" t="s">
+        <v>2</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>13</v>
+      </c>
+      <c r="B293">
+        <v>5.2380000000000005E-4</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>6</v>
+      </c>
+      <c r="E293" t="s">
+        <v>2</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>13</v>
+      </c>
+      <c r="B294">
+        <v>8.2649999999999998E-4</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1</v>
+      </c>
+      <c r="D294">
+        <v>6</v>
+      </c>
+      <c r="E294" t="s">
+        <v>2</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>13</v>
+      </c>
+      <c r="B295">
+        <v>8.1780000000000004E-4</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>6</v>
+      </c>
+      <c r="E295" t="s">
+        <v>2</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>13</v>
+      </c>
+      <c r="B296">
+        <v>7.4989999999999996E-4</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>6</v>
+      </c>
+      <c r="E296" t="s">
+        <v>2</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>13</v>
+      </c>
+      <c r="B297">
+        <v>4.6349999999999999E-4</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>6</v>
+      </c>
+      <c r="E297" t="s">
+        <v>2</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>13</v>
+      </c>
+      <c r="B298">
+        <v>4.6069999999999998E-4</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>6</v>
+      </c>
+      <c r="E298" t="s">
+        <v>2</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>13</v>
+      </c>
+      <c r="B299">
+        <v>4.661E-4</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>6</v>
+      </c>
+      <c r="E299" t="s">
+        <v>2</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>13</v>
+      </c>
+      <c r="B300">
+        <v>4.6319999999999998E-4</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>6</v>
+      </c>
+      <c r="E300" t="s">
+        <v>2</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>13</v>
+      </c>
+      <c r="B301">
+        <v>4.6289999999999998E-4</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1</v>
+      </c>
+      <c r="D301">
+        <v>6</v>
+      </c>
+      <c r="E301" t="s">
+        <v>2</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>13</v>
+      </c>
+      <c r="B302">
+        <v>4.6509999999999998E-4</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1</v>
+      </c>
+      <c r="D302">
+        <v>6</v>
+      </c>
+      <c r="E302" t="s">
+        <v>2</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>13</v>
+      </c>
+      <c r="B303">
+        <v>4.64E-4</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <v>6</v>
+      </c>
+      <c r="E303" t="s">
+        <v>2</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>13</v>
+      </c>
+      <c r="B304">
+        <v>4.6420000000000001E-4</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>6</v>
+      </c>
+      <c r="E304" t="s">
+        <v>2</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>13</v>
+      </c>
+      <c r="B305">
+        <v>4.6319999999999998E-4</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>6</v>
+      </c>
+      <c r="E305" t="s">
+        <v>2</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>13</v>
+      </c>
+      <c r="B306">
+        <v>4.6069999999999998E-4</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>6</v>
+      </c>
+      <c r="E306" t="s">
+        <v>2</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>13</v>
+      </c>
+      <c r="B307">
+        <v>4.6430000000000001E-4</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>6</v>
+      </c>
+      <c r="E307" t="s">
+        <v>2</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>13</v>
+      </c>
+      <c r="B308">
+        <v>4.6109999999999999E-4</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>6</v>
+      </c>
+      <c r="E308" t="s">
+        <v>2</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>13</v>
+      </c>
+      <c r="B309">
+        <v>4.6129999999999999E-4</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <v>6</v>
+      </c>
+      <c r="E309" t="s">
+        <v>2</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>13</v>
+      </c>
+      <c r="B310">
+        <v>4.6680000000000002E-4</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>6</v>
+      </c>
+      <c r="E310" t="s">
+        <v>2</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>13</v>
+      </c>
+      <c r="B311">
+        <v>4.6519999999999998E-4</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>6</v>
+      </c>
+      <c r="E311" t="s">
+        <v>2</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>13</v>
+      </c>
+      <c r="B312">
+        <v>4.64E-4</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>6</v>
+      </c>
+      <c r="E312" t="s">
+        <v>2</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>13</v>
+      </c>
+      <c r="B313">
+        <v>4.6139999999999999E-4</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1</v>
+      </c>
+      <c r="D313">
+        <v>6</v>
+      </c>
+      <c r="E313" t="s">
+        <v>2</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>13</v>
+      </c>
+      <c r="B314">
+        <v>4.6450000000000001E-4</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>6</v>
+      </c>
+      <c r="E314" t="s">
+        <v>2</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>13</v>
+      </c>
+      <c r="B315">
+        <v>4.6309999999999998E-4</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1</v>
+      </c>
+      <c r="D315">
+        <v>6</v>
+      </c>
+      <c r="E315" t="s">
+        <v>2</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>13</v>
+      </c>
+      <c r="B316">
+        <v>4.6509999999999998E-4</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>6</v>
+      </c>
+      <c r="E316" t="s">
+        <v>2</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B317" s="15">
+        <f>SUM(B292:B316)/25</f>
+        <v>5.0692800000000002E-4</v>
+      </c>
+      <c r="C317" s="11"/>
+      <c r="D317" s="11"/>
+      <c r="E317" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F317" s="16">
+        <f>SUM(F292:F316)/25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>13</v>
+      </c>
+      <c r="B319">
+        <v>7.0730000000000001E-4</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>9</v>
+      </c>
+      <c r="E319" t="s">
+        <v>2</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>13</v>
+      </c>
+      <c r="B320">
+        <v>6.7650000000000002E-4</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>9</v>
+      </c>
+      <c r="E320" t="s">
+        <v>2</v>
+      </c>
+      <c r="F320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>13</v>
+      </c>
+      <c r="B321">
+        <v>6.6089999999999996E-4</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>9</v>
+      </c>
+      <c r="E321" t="s">
+        <v>2</v>
+      </c>
+      <c r="F321">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>13</v>
+      </c>
+      <c r="B322">
+        <v>6.1799999999999995E-4</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1</v>
+      </c>
+      <c r="D322">
+        <v>9</v>
+      </c>
+      <c r="E322" t="s">
+        <v>2</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>13</v>
+      </c>
+      <c r="B323">
+        <v>6.2140000000000003E-4</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1</v>
+      </c>
+      <c r="D323">
+        <v>9</v>
+      </c>
+      <c r="E323" t="s">
+        <v>2</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>13</v>
+      </c>
+      <c r="B324">
+        <v>6.2270000000000001E-4</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>9</v>
+      </c>
+      <c r="E324" t="s">
+        <v>2</v>
+      </c>
+      <c r="F324">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>13</v>
+      </c>
+      <c r="B325">
+        <v>6.1589999999999995E-4</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>9</v>
+      </c>
+      <c r="E325" t="s">
+        <v>2</v>
+      </c>
+      <c r="F325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>13</v>
+      </c>
+      <c r="B326">
+        <v>6.1419999999999997E-4</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>9</v>
+      </c>
+      <c r="E326" t="s">
+        <v>2</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>13</v>
+      </c>
+      <c r="B327">
+        <v>6.177E-4</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>9</v>
+      </c>
+      <c r="E327" t="s">
+        <v>2</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>13</v>
+      </c>
+      <c r="B328">
+        <v>6.1689999999999998E-4</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>9</v>
+      </c>
+      <c r="E328" t="s">
+        <v>2</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>13</v>
+      </c>
+      <c r="B329">
+        <v>6.1169999999999996E-4</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>9</v>
+      </c>
+      <c r="E329" t="s">
+        <v>2</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>13</v>
+      </c>
+      <c r="B330">
+        <v>6.6750000000000002E-4</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>9</v>
+      </c>
+      <c r="E330" t="s">
+        <v>2</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>13</v>
+      </c>
+      <c r="B331">
+        <v>6.1919999999999998E-4</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>9</v>
+      </c>
+      <c r="E331" t="s">
+        <v>2</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>13</v>
+      </c>
+      <c r="B332">
+        <v>6.2109999999999997E-4</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>9</v>
+      </c>
+      <c r="E332" t="s">
+        <v>2</v>
+      </c>
+      <c r="F332">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>13</v>
+      </c>
+      <c r="B333">
+        <v>6.2109999999999997E-4</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1</v>
+      </c>
+      <c r="D333">
+        <v>9</v>
+      </c>
+      <c r="E333" t="s">
+        <v>2</v>
+      </c>
+      <c r="F333">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>13</v>
+      </c>
+      <c r="B334">
+        <v>6.8440000000000005E-4</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1</v>
+      </c>
+      <c r="D334">
+        <v>9</v>
+      </c>
+      <c r="E334" t="s">
+        <v>2</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>13</v>
+      </c>
+      <c r="B335">
+        <v>6.1499999999999999E-4</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>9</v>
+      </c>
+      <c r="E335" t="s">
+        <v>2</v>
+      </c>
+      <c r="F335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>13</v>
+      </c>
+      <c r="B336">
+        <v>6.5709999999999998E-4</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>9</v>
+      </c>
+      <c r="E336" t="s">
+        <v>2</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>13</v>
+      </c>
+      <c r="B337">
+        <v>6.223E-4</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>9</v>
+      </c>
+      <c r="E337" t="s">
+        <v>2</v>
+      </c>
+      <c r="F337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>13</v>
+      </c>
+      <c r="B338">
+        <v>6.1059999999999999E-4</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1</v>
+      </c>
+      <c r="D338">
+        <v>9</v>
+      </c>
+      <c r="E338" t="s">
+        <v>2</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>13</v>
+      </c>
+      <c r="B339">
+        <v>6.112E-4</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1</v>
+      </c>
+      <c r="D339">
+        <v>9</v>
+      </c>
+      <c r="E339" t="s">
+        <v>2</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>13</v>
+      </c>
+      <c r="B340">
+        <v>6.1600000000000001E-4</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>9</v>
+      </c>
+      <c r="E340" t="s">
+        <v>2</v>
+      </c>
+      <c r="F340">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>13</v>
+      </c>
+      <c r="B341">
+        <v>6.1600000000000001E-4</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1</v>
+      </c>
+      <c r="D341">
+        <v>9</v>
+      </c>
+      <c r="E341" t="s">
+        <v>2</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>13</v>
+      </c>
+      <c r="B342">
+        <v>6.1810000000000001E-4</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1</v>
+      </c>
+      <c r="D342">
+        <v>9</v>
+      </c>
+      <c r="E342" t="s">
+        <v>2</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>13</v>
+      </c>
+      <c r="B343">
+        <v>6.5240000000000003E-4</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1</v>
+      </c>
+      <c r="D343">
+        <v>9</v>
+      </c>
+      <c r="E343" t="s">
+        <v>2</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B344" s="15">
+        <f>SUM(B319:B343)/25</f>
+        <v>6.3260799999999978E-4</v>
+      </c>
+      <c r="C344" s="11"/>
+      <c r="D344" s="11"/>
+      <c r="E344" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F344" s="16">
+        <f>SUM(F319:F343)/25</f>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>13</v>
+      </c>
+      <c r="B346">
+        <v>1.1969000000000001E-3</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>12</v>
+      </c>
+      <c r="E346" t="s">
+        <v>2</v>
+      </c>
+      <c r="F346">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>13</v>
+      </c>
+      <c r="B347">
+        <v>1.8201999999999999E-3</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <v>12</v>
+      </c>
+      <c r="E347" t="s">
+        <v>2</v>
+      </c>
+      <c r="F347">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>13</v>
+      </c>
+      <c r="B348">
+        <v>1.4311E-3</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>12</v>
+      </c>
+      <c r="E348" t="s">
+        <v>2</v>
+      </c>
+      <c r="F348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>13</v>
+      </c>
+      <c r="B349">
+        <v>1.0541000000000001E-3</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1</v>
+      </c>
+      <c r="D349">
+        <v>12</v>
+      </c>
+      <c r="E349" t="s">
+        <v>2</v>
+      </c>
+      <c r="F349">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>13</v>
+      </c>
+      <c r="B350">
+        <v>5.2385000000000001E-3</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1</v>
+      </c>
+      <c r="D350">
+        <v>12</v>
+      </c>
+      <c r="E350" t="s">
+        <v>2</v>
+      </c>
+      <c r="F350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>13</v>
+      </c>
+      <c r="B351">
+        <v>1.4051999999999999E-3</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1</v>
+      </c>
+      <c r="D351">
+        <v>12</v>
+      </c>
+      <c r="E351" t="s">
+        <v>2</v>
+      </c>
+      <c r="F351">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>13</v>
+      </c>
+      <c r="B352">
+        <v>9.9580000000000003E-4</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1</v>
+      </c>
+      <c r="D352">
+        <v>12</v>
+      </c>
+      <c r="E352" t="s">
+        <v>2</v>
+      </c>
+      <c r="F352">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>13</v>
+      </c>
+      <c r="B353">
+        <v>9.8989999999999994E-4</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1</v>
+      </c>
+      <c r="D353">
+        <v>12</v>
+      </c>
+      <c r="E353" t="s">
+        <v>2</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>13</v>
+      </c>
+      <c r="B354">
+        <v>1.1054000000000001E-3</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>12</v>
+      </c>
+      <c r="E354" t="s">
+        <v>2</v>
+      </c>
+      <c r="F354">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>13</v>
+      </c>
+      <c r="B355">
+        <v>1.1444999999999999E-3</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>12</v>
+      </c>
+      <c r="E355" t="s">
+        <v>2</v>
+      </c>
+      <c r="F355">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>13</v>
+      </c>
+      <c r="B356">
+        <v>1.0009999999999999E-3</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>12</v>
+      </c>
+      <c r="E356" t="s">
+        <v>2</v>
+      </c>
+      <c r="F356">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>13</v>
+      </c>
+      <c r="B357">
+        <v>9.8539999999999999E-4</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <v>12</v>
+      </c>
+      <c r="E357" t="s">
+        <v>2</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>13</v>
+      </c>
+      <c r="B358">
+        <v>1.0005000000000001E-3</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1</v>
+      </c>
+      <c r="D358">
+        <v>12</v>
+      </c>
+      <c r="E358" t="s">
+        <v>2</v>
+      </c>
+      <c r="F358">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>13</v>
+      </c>
+      <c r="B359">
+        <v>1.0036000000000001E-3</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1</v>
+      </c>
+      <c r="D359">
+        <v>12</v>
+      </c>
+      <c r="E359" t="s">
+        <v>2</v>
+      </c>
+      <c r="F359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>13</v>
+      </c>
+      <c r="B360">
+        <v>1.0028999999999999E-3</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1</v>
+      </c>
+      <c r="D360">
+        <v>12</v>
+      </c>
+      <c r="E360" t="s">
+        <v>2</v>
+      </c>
+      <c r="F360">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>13</v>
+      </c>
+      <c r="B361">
+        <v>1.0032000000000001E-3</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>12</v>
+      </c>
+      <c r="E361" t="s">
+        <v>2</v>
+      </c>
+      <c r="F361">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>13</v>
+      </c>
+      <c r="B362">
+        <v>9.9620000000000004E-4</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>12</v>
+      </c>
+      <c r="E362" t="s">
+        <v>2</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>13</v>
+      </c>
+      <c r="B363">
+        <v>9.9310000000000002E-4</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>12</v>
+      </c>
+      <c r="E363" t="s">
+        <v>2</v>
+      </c>
+      <c r="F363">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>13</v>
+      </c>
+      <c r="B364">
+        <v>1.0051000000000001E-3</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1</v>
+      </c>
+      <c r="D364">
+        <v>12</v>
+      </c>
+      <c r="E364" t="s">
+        <v>2</v>
+      </c>
+      <c r="F364">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>13</v>
+      </c>
+      <c r="B365">
+        <v>9.9770000000000002E-4</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1</v>
+      </c>
+      <c r="D365">
+        <v>12</v>
+      </c>
+      <c r="E365" t="s">
+        <v>2</v>
+      </c>
+      <c r="F365">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>13</v>
+      </c>
+      <c r="B366">
+        <v>9.923E-4</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1</v>
+      </c>
+      <c r="D366">
+        <v>12</v>
+      </c>
+      <c r="E366" t="s">
+        <v>2</v>
+      </c>
+      <c r="F366">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>13</v>
+      </c>
+      <c r="B367">
+        <v>1.0272E-3</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1</v>
+      </c>
+      <c r="D367">
+        <v>12</v>
+      </c>
+      <c r="E367" t="s">
+        <v>2</v>
+      </c>
+      <c r="F367">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>13</v>
+      </c>
+      <c r="B368">
+        <v>9.9329999999999991E-4</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1</v>
+      </c>
+      <c r="D368">
+        <v>12</v>
+      </c>
+      <c r="E368" t="s">
+        <v>2</v>
+      </c>
+      <c r="F368">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>13</v>
+      </c>
+      <c r="B369">
+        <v>1.0196999999999999E-3</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1</v>
+      </c>
+      <c r="D369">
+        <v>12</v>
+      </c>
+      <c r="E369" t="s">
+        <v>2</v>
+      </c>
+      <c r="F369">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>13</v>
+      </c>
+      <c r="B370">
+        <v>1.005E-3</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>12</v>
+      </c>
+      <c r="E370" t="s">
+        <v>2</v>
+      </c>
+      <c r="F370">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B371" s="15">
+        <f>SUM(B346:B370)/25</f>
+        <v>1.2563119999999999E-3</v>
+      </c>
+      <c r="C371" s="11"/>
+      <c r="D371" s="11"/>
+      <c r="E371" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F371" s="16">
+        <f>SUM(F346:F370)/25</f>
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>13</v>
+      </c>
+      <c r="B373">
+        <v>1.5265000000000001E-3</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>24</v>
+      </c>
+      <c r="E373" t="s">
+        <v>2</v>
+      </c>
+      <c r="F373">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>13</v>
+      </c>
+      <c r="B374">
+        <v>1.3859E-3</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>24</v>
+      </c>
+      <c r="E374" t="s">
+        <v>2</v>
+      </c>
+      <c r="F374">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>13</v>
+      </c>
+      <c r="B375">
+        <v>1.3542999999999999E-3</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1</v>
+      </c>
+      <c r="D375">
+        <v>24</v>
+      </c>
+      <c r="E375" t="s">
+        <v>2</v>
+      </c>
+      <c r="F375">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>13</v>
+      </c>
+      <c r="B376">
+        <v>1.2741E-3</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <v>24</v>
+      </c>
+      <c r="E376" t="s">
+        <v>2</v>
+      </c>
+      <c r="F376">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>13</v>
+      </c>
+      <c r="B377">
+        <v>1.2495E-3</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1</v>
+      </c>
+      <c r="D377">
+        <v>24</v>
+      </c>
+      <c r="E377" t="s">
+        <v>2</v>
+      </c>
+      <c r="F377">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>13</v>
+      </c>
+      <c r="B378">
+        <v>1.2317000000000001E-3</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1</v>
+      </c>
+      <c r="D378">
+        <v>24</v>
+      </c>
+      <c r="E378" t="s">
+        <v>2</v>
+      </c>
+      <c r="F378">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>13</v>
+      </c>
+      <c r="B379">
+        <v>1.2405999999999999E-3</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1</v>
+      </c>
+      <c r="D379">
+        <v>24</v>
+      </c>
+      <c r="E379" t="s">
+        <v>2</v>
+      </c>
+      <c r="F379">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>13</v>
+      </c>
+      <c r="B380">
+        <v>1.2172000000000001E-3</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1</v>
+      </c>
+      <c r="D380">
+        <v>24</v>
+      </c>
+      <c r="E380" t="s">
+        <v>2</v>
+      </c>
+      <c r="F380">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>13</v>
+      </c>
+      <c r="B381">
+        <v>1.2289E-3</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1</v>
+      </c>
+      <c r="D381">
+        <v>24</v>
+      </c>
+      <c r="E381" t="s">
+        <v>2</v>
+      </c>
+      <c r="F381">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>13</v>
+      </c>
+      <c r="B382">
+        <v>1.2346E-3</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>24</v>
+      </c>
+      <c r="E382" t="s">
+        <v>2</v>
+      </c>
+      <c r="F382">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>13</v>
+      </c>
+      <c r="B383">
+        <v>1.2329000000000001E-3</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1</v>
+      </c>
+      <c r="D383">
+        <v>24</v>
+      </c>
+      <c r="E383" t="s">
+        <v>2</v>
+      </c>
+      <c r="F383">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>13</v>
+      </c>
+      <c r="B384">
+        <v>1.2232E-3</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1</v>
+      </c>
+      <c r="D384">
+        <v>24</v>
+      </c>
+      <c r="E384" t="s">
+        <v>2</v>
+      </c>
+      <c r="F384">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>13</v>
+      </c>
+      <c r="B385">
+        <v>1.2290000000000001E-3</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1</v>
+      </c>
+      <c r="D385">
+        <v>24</v>
+      </c>
+      <c r="E385" t="s">
+        <v>2</v>
+      </c>
+      <c r="F385">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>13</v>
+      </c>
+      <c r="B386">
+        <v>1.2363999999999999E-3</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1</v>
+      </c>
+      <c r="D386">
+        <v>24</v>
+      </c>
+      <c r="E386" t="s">
+        <v>2</v>
+      </c>
+      <c r="F386">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>13</v>
+      </c>
+      <c r="B387">
+        <v>1.2738999999999999E-3</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1</v>
+      </c>
+      <c r="D387">
+        <v>24</v>
+      </c>
+      <c r="E387" t="s">
+        <v>2</v>
+      </c>
+      <c r="F387">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>13</v>
+      </c>
+      <c r="B388">
+        <v>1.2508E-3</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1</v>
+      </c>
+      <c r="D388">
+        <v>24</v>
+      </c>
+      <c r="E388" t="s">
+        <v>2</v>
+      </c>
+      <c r="F388">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>13</v>
+      </c>
+      <c r="B389">
+        <v>1.2351E-3</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1</v>
+      </c>
+      <c r="D389">
+        <v>24</v>
+      </c>
+      <c r="E389" t="s">
+        <v>2</v>
+      </c>
+      <c r="F389">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>13</v>
+      </c>
+      <c r="B390">
+        <v>1.2394999999999999E-3</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1</v>
+      </c>
+      <c r="D390">
+        <v>24</v>
+      </c>
+      <c r="E390" t="s">
+        <v>2</v>
+      </c>
+      <c r="F390">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>13</v>
+      </c>
+      <c r="B391">
+        <v>1.2681000000000001E-3</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1</v>
+      </c>
+      <c r="D391">
+        <v>24</v>
+      </c>
+      <c r="E391" t="s">
+        <v>2</v>
+      </c>
+      <c r="F391">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>13</v>
+      </c>
+      <c r="B392">
+        <v>1.232E-3</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1</v>
+      </c>
+      <c r="D392">
+        <v>24</v>
+      </c>
+      <c r="E392" t="s">
+        <v>2</v>
+      </c>
+      <c r="F392">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>13</v>
+      </c>
+      <c r="B393">
+        <v>1.2656E-3</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1</v>
+      </c>
+      <c r="D393">
+        <v>24</v>
+      </c>
+      <c r="E393" t="s">
+        <v>2</v>
+      </c>
+      <c r="F393">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>13</v>
+      </c>
+      <c r="B394">
+        <v>1.2712999999999999E-3</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1</v>
+      </c>
+      <c r="D394">
+        <v>24</v>
+      </c>
+      <c r="E394" t="s">
+        <v>2</v>
+      </c>
+      <c r="F394">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>13</v>
+      </c>
+      <c r="B395">
+        <v>1.2666999999999999E-3</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>24</v>
+      </c>
+      <c r="E395" t="s">
+        <v>2</v>
+      </c>
+      <c r="F395">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>13</v>
+      </c>
+      <c r="B396">
+        <v>1.3086E-3</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1</v>
+      </c>
+      <c r="D396">
+        <v>24</v>
+      </c>
+      <c r="E396" t="s">
+        <v>2</v>
+      </c>
+      <c r="F396">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>13</v>
+      </c>
+      <c r="B397">
+        <v>1.2454E-3</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1</v>
+      </c>
+      <c r="D397">
+        <v>24</v>
+      </c>
+      <c r="E397" t="s">
+        <v>2</v>
+      </c>
+      <c r="F397">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B398" s="15">
+        <f>SUM(B373:B397)/25</f>
+        <v>1.2688720000000001E-3</v>
+      </c>
+      <c r="C398" s="11"/>
+      <c r="D398" s="11"/>
+      <c r="E398" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F398" s="16">
+        <f>SUM(F373:F397)/25</f>
+        <v>23.2</v>
       </c>
     </row>
   </sheetData>

--- a/lab02/experiments/experiments.xlsx
+++ b/lab02/experiments/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MHE\lab02\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACD09F7-CB58-49CE-A0AA-59ED701B49DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F1A0EB-3EE4-449C-BE63-5114AE281CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1226,7 +1226,7 @@
                 <c:pt idx="2">
                   <c:v>1.2563119999999999E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0000000000">
                   <c:v>1.2688720000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -3522,7 +3522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>
